--- a/data/hotels_by_city/Dallas/Dallas_shard_194.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_194.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>doretheas2017</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>751michaelk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r579478392-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>We had to make a business trip to the Dallas area and found the Drury Inn in Frisco.  We were greeted by Kammisha and Caroline.  They asked us if we had stayed at that facility before and we told them we had never stayed in the Dallas area before.  They were both extremely helpful in pointing out local dining and shopping.  The Kickback service at the hotel was more than adequate for dinner with salad, soup, chicken, hotdogs and baked potatoes.  Bernard was the bartender and also provided great service.  The rooftop on the ninth floor was a great place to enjoy a glass of wine.  The room was very clean as was the rest of the hotel.  It is relatively new, about 9 months.  A great stay and a great value.More</t>
   </si>
   <si>
+    <t>tabsmac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r580431851-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I...I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I missed the 5:00 kickback which is a meal by itself and cocktails!!!  We returned to the room later that night, had a good nights rest, followed by a filling breakfast and was once again on the road back to Memphis. My stay was less than 24 hours, but It didn't feel like it. If I could have stayed longer I would have, I definitely plan to stay there again. Kudos to Erika, thanks so much for the pleasant stay.More</t>
   </si>
   <si>
+    <t>Andrew O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r578387841-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>The best hotel I have ever had the pleasure of visiting!! My wife and I are in town for medical appointments and we were greeted by Erica who was extra helpful and friendly. Our next interaction was with Kimmisha and the manger Mark; both were wonderful to work with. If you’re ever in the Frisco area I would strongly suggest staying at this wonderful establishment!!</t>
   </si>
   <si>
+    <t>GRO3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r577766291-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>Drury Inn had lost me as a customer years ago however on a recent business trip I decided to give them another try and am I so glad I did.  This location is a newer build which makes a world of difference.  The staff is caring and kind no matter if you are checking in, returning from a long day or heading out for the morning they always take time to say hello and make eye contact.  The 9th floor has amazing views of Frisco along with a solid workout area and outdoor terrace. I will definitely be staying here again.</t>
   </si>
   <si>
+    <t>RAJAN74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r575726877-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>898samos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r575232867-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -282,6 +303,9 @@
     <t>Excellent Stay, staff was very nice, bed was very comfortable. There was something going on with a lot of kids being there so they put me on another floor away for them, it was very quite. I would recommend the say.</t>
   </si>
   <si>
+    <t>Jackie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r572176495-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t>We loved our stay at Drury!  We only stayed one night (in town for a baseball tournament), but we will definitely be back if we are in the area again!First off, the staff were all amazing!  We did not walk past any employee (whether it be a manager, front desk or house keeper) that did not speak to us and ask how we were doing. Everyone was so polite and courteous. The happy hour appetizers and drinks were great. We didn’t even have to eat out for dinner because there were so many choices. The pool and hot tub were just right, too. The breakfast had a lot of options and no one should leave hungry!  That saved us a lot by not having to eat out. Overall this hotel is not only beautiful, but the overall experience was top notch!  We will definitely tell our friends and family and we look forward to our next trip here. More</t>
   </si>
   <si>
+    <t>K S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r571860732-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>I love Drury Inn &amp; Suites! This is the only chain I use for my family. I highly recommend this chain. The quality is always amazing. Erica was absolutely wonderful. She made us feel like we were at home. Drury Inn &amp; Suites is so lucky to have her. She deserves a raise. The indoor pool was very nice. The children had loads of fun swimming in it. Our room was super clean as always with the Drury chain. We had 2 queen beds and a sofa bed. The room had a mini fridge. I almost did not want to leave the bed because it was so comfortable. We enjoyed the breakfast and dinner buffet. My family's entire spring break was awesome. I will be back again. More</t>
   </si>
   <si>
+    <t>Meko</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r571694790-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -333,6 +363,9 @@
     <t>This hotel was meant for a quick 1 night last minute trip. But wow how impressive to find a fantastic hotel by accident. The showers rock, bed is so comfortable, clean rooms, free breakfast and happy hour w free drinks and light dinner, super friendly staff and excellent price. Will be my first pick in future. Nice job!!!</t>
   </si>
   <si>
+    <t>IowaGirl1206</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r569192722-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t>This hotel is in a good location for shopping and things to do.  It has a decent breakfast and snacks out on week nights that are appreciated.  But in our room we kept hearing scraping and banging noises.  We couldn't figure out what in the world it could be.  We were too tired to ask to change rooms.  But it was loud and woke us up off and on.  When I checked out I told the people at the desk and they said, "Oh, your room was under the fitness center".  I guess it is on a higher floor.  So if you stay here ask for a room where you don't hear weights dropping, etc. because it is a 24 hour fitness center and it was used in the middle of the night.  Also, when we checked in we found a few peanuts on the floor of our room that made us think the room hadn't been vacuumed.  Since we were so tired we decided to ignore it but then when we were packing up we discovered more.  The bathroom was very clean as was the breakfast area.  There are many hotels in this area so I probably wouldn't stay here again.More</t>
   </si>
   <si>
+    <t>pinballplus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r568879066-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -375,6 +411,9 @@
     <t>The staff was super friendly. The hotel provides a great value for guests providing 3 drinks per day and serving a mid afternoon snack. The manager came out and asked us how our breakfast was every day of our stay. I will stay here again.</t>
   </si>
   <si>
+    <t>skv13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r566386981-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -393,6 +432,9 @@
     <t>We live in the area but went here for a couple of days just to get away over Spring Break. The hotel looked new, it was clean, and the front desk was very friendly. The room was large. It had two queen beds and a living room with a fold out couch. The fold out couches in hotels are usually terrible but my son said this one was pretty comfortable.It has a indoor pool and hot tub. We did not eat breakfast here but it looked good. They also have food available in the evenings. The beds were comfortable and we got a good rate. It very close to Stonebriar Mall so you are very close to a movie theater and lots of places to eat. Would stay here again in a second. Not a single complaint I can think of.More</t>
   </si>
   <si>
+    <t>Carterpartyof3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r565339422-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -408,6 +450,9 @@
     <t xml:space="preserve">I normally stay at the Drury in Austin. This one is by far the best. Walk in and get a friendly greeting from Erica. Come back later after some shopping and get more great customer service from Ariel &amp; Kimmishia. Despite 3 basketball teams and 2 buses full of Canadian tourists in the hotel at the same time everything was suburb. Words can’t explain the kickback. There was no need for me to spend money on dinner or a relaxing adult beverage. Loved the indoor pool and whirlpool. I will definitely be back and I hope the same staff will be there. </t>
   </si>
   <si>
+    <t>HeatherNicole S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r564119976-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -427,6 +472,9 @@
   </si>
   <si>
     <t>From the time I walked into the lobby and greeted by Kimmeshia - I knew this hotel was going to supersede my expectations.  She was warm and very caring.  I had family in town and she was so accommodating and caring - not just for ratings, it was truly genuine.  The room was very clean and comfortable.  The entire staff was friendly  I met Brittany in the dining area and she always asked about our day.  Erica was at the front desk when we checked out and she was also kind and caring.  She had wonderful things to say about working for Drury.  It says a lot when employees truly enjoy what they do and the companies they work for take care of them.  I will definitely be back!More</t>
+  </si>
+  <si>
+    <t>GoHeeterGo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r562830521-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
@@ -455,6 +503,9 @@
 The only downsides are it can be noisy if you have a room on the side closest to the highway. The hot tub is not working...This is my fourth or fifth stay at Drury property and they never disappoint! I was so happy one was built in Frisco, and kept waiting for an excuse to try it out since I don't live too terribly far away. So, we had several hockey games next door at the Dr. Pepper Arena and this fit the bill perfectly. You can walk to the Dr. Pepper Arena!Drury Hotels include an amazing breakfast buffet and evening snacks (more like dinner) and up to 3 alcoholic beverages for adults. (Called the kick-back...no need to go out for dinner...there's plenty here!) My son loves the free popcorn and soda, usually served from 3-10 pm. Note - on the weekends, it can get crowded during eating times. But staff does a good job restocking everything.Our room was very spacious, with two queen beds and a sitting are with a couple chairs. We had several teammates staying in the hotel too, and the kids had a blast swimming in the indoor pool and hanging out upstairs in the 9th floor common area - it has a lounge and outdoor patio terrace.Great Location in Frisco, just off tollway. Close to IKEA, Dr. Pepper Ice Hockey Arena and Rough Riders Baseball Stadium, and Cowboys Practice Facility, etc.The only downsides are it can be noisy if you have a room on the side closest to the highway. The hot tub is not working and I was really looking forward to a soak. I would definitely stay here again. We will probably plan a family "stay-cation" sometime. It makes for a great little weekend away.More</t>
   </si>
   <si>
+    <t>Cassidy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r562717795-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -465,6 +516,9 @@
   </si>
   <si>
     <t xml:space="preserve">We absolutely loved staying at this hotel! We received amazing service from Erica at the front desk from check-in until check out! From the free snack buffet, drinks, and amazing breakfast we were well fed! The room was nice and comfortable. Can’t say enough what a great stay we had! </t>
+  </si>
+  <si>
+    <t>juhamilton</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r562347927-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
@@ -490,6 +544,9 @@
 My two complaints. First, the TV in the main living area would not turn on! I'm not stupid and I know how to turn on a TV but it would not work. Checked the plug, and the remote. The remote light went on when I hit the power button but TV would not turn on. Unfortunately I had work to do and needed to sit at the desk and really wanted to have the TV on the Olympics while working. So I used the room phone and called for service and was told someone would be "right up immediately".  I delayed taking a shower and changing into my sleepwear bc I wanted to be dressed for whomever came in to fix it. One hour and 20 minutes later I called them back and said forget it, I was tired of waiting and wanted to start getting ready for bed. Basically they said "Ok, sorry it didn't work out." My suggestion...Convenient as it's right off the Tollway (although it was a bit noisy on the side of the hotel closest to the tollway). Parking is a breeze. Hotel is new, modern, clean, and the staff I met were very friendly. Elevator was prompt and rarely full. Room was immaculate and room itself was large and had all the appointments you would expect in a King suite (writing desk, large tv's, refrigerator, blackout curtains that were exceptional in their function, etc).My two complaints. First, the TV in the main living area would not turn on! I'm not stupid and I know how to turn on a TV but it would not work. Checked the plug, and the remote. The remote light went on when I hit the power button but TV would not turn on. Unfortunately I had work to do and needed to sit at the desk and really wanted to have the TV on the Olympics while working. So I used the room phone and called for service and was told someone would be "right up immediately".  I delayed taking a shower and changing into my sleepwear bc I wanted to be dressed for whomever came in to fix it. One hour and 20 minutes later I called them back and said forget it, I was tired of waiting and wanted to start getting ready for bed. Basically they said "Ok, sorry it didn't work out." My suggestion would be don't tell your guests someone will be there immediately if they aren't coming in at least 1/2 hour and you might want to act surprised when they haven't shown in an hour and 20 minutes.Second issue I had was the frig in the room froze my drink (it was just in there 7 hours). There were no controls on the frig (at least not that I could see) so there was no way to adjust the temperature. The problem wasn't the frozen drink per se, it was that I often travel with medications that require refrigeration. Freezing my medication would destroy it's efficacy. Thankfully I wasn't traveling with it this night.I will return.More</t>
   </si>
   <si>
+    <t>veronetravis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r562007029-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -505,6 +562,9 @@
     <t>This is not The Drury Inn from several years ago! It is new, modern, clean and comfortable. Pluses to that are the happy hour with drinks and dinner. Tonight’s menu is chicken, pasta, potato bar, hot dogs, nachos, chili, and potato soup. A meal not just a snack! The staff is professional and attentive.</t>
   </si>
   <si>
+    <t>Bluu-Room</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r558617003-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -523,6 +583,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>ReneeShortbread</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r553379419-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -538,6 +601,9 @@
     <t>This place is spacious, clean and inviting. Staff was friendly and always helpful and courteous. Great breakfast included with hot foods (eggs, sausage, biscuits, make your own waffles) and quick continental as well ( donuts, yogurt, muffins). In the evening there was food for a dinner if you eat light. It was a welcome to me after a 13 hour driving day to have choices of real food waiting (salad, chicken strips, nachos, hot dogs, chili, baked potato, pasta) and free drinks including a cocktail. All this and a comfortable bed, soft pillows, quiet room. It is a 5 star hotel for a reasonable price.</t>
   </si>
   <si>
+    <t>Wilma929</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r552491578-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -553,6 +619,9 @@
     <t>This new hotel is beautiful, and comfortable. While we didn't take advantage of the meal/drinks offered, we did enjoy the full breakfast. The staff was accommodating. We were able to check in early and did get the adjoining rooms we requested. The pool was used by our kids and they enjoyed it.  The hot tub had no water in it, but that didn't affect our stay.</t>
   </si>
   <si>
+    <t>txwalkers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r552343246-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -571,6 +640,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>kimmR2228NF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r551177956-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -589,6 +661,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>Jami13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r550536280-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -613,6 +688,9 @@
     <t>This is a brand new hotel and it is beautiful. Everyone who works here is very nice and accommodating.  We stayed here between Christmas and New Years and the hotel was decorated beautifully. We enjoyed all the perks when staying at a Drury Inn, free breakfast, free WiFi, free kickback meal in the evening. It makes the trip very cost effective. The only negative we had was the hot tub was out of order. One of the main reasons we like to get away is so we can relax in the hot tub but unfortunately that was not the case during this trip. It really surprised us since this is a brand new hotel. When we inquired about it at the front desk, we were told it would be out of order for the next couple of months. We do plan on returning to this Drury in the future - after the hot tub is fixed. More</t>
   </si>
   <si>
+    <t>Winks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r550064608-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -628,6 +706,9 @@
     <t>I love the Drury chain! For the same price and often cheaper than other hotels you get mega benefits! Both hot supper and breakfast. Three free drinks at supper between 5:30 and 7pm. Soda and free popcorn whenever. Free local and long distance phone calls. Lovely comfy large decorated rooms. This chain is always my first choice!</t>
   </si>
   <si>
+    <t>546lovetotravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r548444857-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -643,6 +724,9 @@
     <t>Very friendly, attentive staff. Clean, comfortable room. Convenient location. Excellent morning breakfast buffet with scrambled eggs, sausage, potatoes, waffles, bagels, oatmeal, cereal, biscuits, and gravy, muffins, toast, coffee, juice, and sodas.  Evening snacks provided as well. Quiet hotel....great for sleeping! Free WiFi without any passwords or logins. ATM in lobby. Quick check-out. Small Microwave and fridge in room as well as coffee maker and hair dryer.</t>
   </si>
   <si>
+    <t>Terps92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r547354576-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -667,6 +751,9 @@
     <t>I stayed here on a business trip. The hotel was nice for business. Internet access was free and worked well. The meeting rooms worked out well for our conference. The gym consisted of 3 treadmills, 2 elliptical machines, a bike and some free weights. They did also have an indoor pool.  The rooms were a nice size. Restaurants are nearby and you would probably take an Uber to get to them, however, if you feel up to walking they are probably 15-20 minutes away from some nice restaurant options. They also offer a breakfast buffet and a dinner buffet that comes with the room from 5:30 - 7 PM. They had baked potatoes, hot dogs, pasta, grilled chicken, salad and soups. I wouldn't make a meal out of it, although you certainly could. It is probably better for a light snack and then go out to dinner around town. Two minor issues that management should look into: the 9th floor terrace is concave and the staff could have cleaned the mens room up more often as there were times there were no towels to dry your hands. I would stay here again.More</t>
   </si>
   <si>
+    <t>Babs K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r545057897-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -680,6 +767,9 @@
   </si>
   <si>
     <t>We stayed just one night during our travels.  Clean, modern linens, large bathroom,  very comfortable bed.  Kickback and breakfast was delicious, plenty and hot.  Staff was very friendly and helpful.  We drove 13 miles out of our way just to stay at this Drury Inn and was not disappointed.   Would definitely stay here again</t>
+  </si>
+  <si>
+    <t>Eric V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r534917103-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
@@ -707,6 +797,9 @@
 When we checked in, we were given cards for happy hour each day from 5:30-7 PM. Happy hour did not disappoint. You get 3 free alcoholic drinks a day, and they don't skimp on the booze. They had penne pasta, baked potatoes, nachos with cheese, and grilled chicken, plus liquor, 4 different kinds of wine, and cocktails, definitely not the norm at a hotel, but definitely appreciate. All free of charge, just for being a guest....This is a brand new hotel, been open about a month, and it shows. Very nice building with a parking garage right behind, and located right off the Dallas North Tollway in Frisco. We booked this place after a disappointing stay at another hotel with a brick-like bed. We called over to this hotel, and were assured the beds were top notch. They were not wrong, it was like sleeping on a cloud.We arrived at the hotel and were greeted with smiles from everyone. This was the "norm" during our entire stay, from maintenance guys to other employees, everyone was so nice and welcoming. We were pleasantly surprised at our double queen room which was super big. After a good night's rest, we hit the breakfast area and there was quite a diverse menu including muffins, biscuits and gravy, scrambled eggs, sausage, waffle maker, oatmeal with fixings, a fountain soda machine, many different kinds of coffee and fruits, and others. Everything was fresh.When we checked in, we were given cards for happy hour each day from 5:30-7 PM. Happy hour did not disappoint. You get 3 free alcoholic drinks a day, and they don't skimp on the booze. They had penne pasta, baked potatoes, nachos with cheese, and grilled chicken, plus liquor, 4 different kinds of wine, and cocktails, definitely not the norm at a hotel, but definitely appreciate. All free of charge, just for being a guest. It should be noted that this hotel also had a beautiful outdoor terrace on the 9th floor, and they do happy hour up there as well.They do have an indoor pool and hot tub, but it should be noted that the hot tub is not working at the time of this review, and it has a major leak in it, should be down for several weeks.The only negative was the WIFI, which in our room felt like dial-up, it just crawled for hours. I complained to the manager, who gave me the "internet help" line. 10 minutes later, after the tech flipped the box, it worked just fine. The manager even went so far as to reduce one nights stay by half, just phenomenal customer service.Finally, pets are welcome! It was $25/night for a pet, and even though ours had an accident on the tile floor, it was no problem and promptly cleaned up.This was a pricey stay, but in our opinion, worth it. Great job Drury Inn staff, you made the stay great for us.More</t>
   </si>
   <si>
+    <t>stephnsteve2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r533582939-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -720,6 +813,9 @@
   </si>
   <si>
     <t>Love Love  Drury inn, This is a brand new hotel , located right off the hotel. The beds are amazing and comfortable. The breakfast is always great and you can make your own waffles. The pool was nice and they have a very nice outdoor patio that makes this hotel very upscale. I loved the basement parking, makes it very accessible to your car.</t>
+  </si>
+  <si>
+    <t>Beverly W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r524191677-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
@@ -1245,43 +1341,47 @@
       <c r="A2" t="n">
         <v>65130</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132069</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1305,50 +1405,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65130</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132070</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1366,50 +1470,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65130</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132071</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1427,50 +1535,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65130</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>132072</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1484,50 +1596,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65130</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132073</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1547,50 +1663,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65130</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132074</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1604,50 +1724,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65130</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132075</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1671,50 +1795,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65130</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>3988</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>88</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1728,41 +1856,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65130</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>25059</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -1781,50 +1913,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65130</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>132076</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1838,50 +1974,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65130</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>132077</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1893,56 +2033,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65130</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132078</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1966,50 +2110,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65130</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>132079</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>121</v>
       </c>
-      <c r="K14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>110</v>
-      </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2029,50 +2177,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65130</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>132080</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2086,50 +2238,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65130</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>132081</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2149,50 +2305,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65130</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132082</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2212,50 +2372,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65130</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>79067</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2269,50 +2433,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65130</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132083</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2332,50 +2500,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65130</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>132084</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2389,50 +2561,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65130</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>132085</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2456,50 +2632,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65130</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132086</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2513,50 +2693,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65130</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>132087</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2576,50 +2760,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65130</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>132088</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2643,50 +2831,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65130</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>132089</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2710,50 +2902,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65130</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132090</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O26" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2765,56 +2961,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="X26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65130</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132091</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -2828,50 +3028,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65130</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>132092</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
         <v>203</v>
-      </c>
-      <c r="L28" t="s">
-        <v>204</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>186</v>
-      </c>
-      <c r="O28" t="s">
-        <v>180</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -2885,50 +3089,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65130</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132093</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -2946,56 +3154,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="X29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="Y29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65130</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132094</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="O30" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3009,50 +3221,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65130</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>6497</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3072,50 +3288,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65130</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>132095</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3133,50 +3353,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65130</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>116570</v>
+      </c>
+      <c r="C33" t="s">
+        <v>261</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="K33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="O33" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3196,7 +3420,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_194.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_194.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,408 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>doretheas2017</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r607503111-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>55870</t>
+  </si>
+  <si>
+    <t>12502285</t>
+  </si>
+  <si>
+    <t>607503111</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Usually always 5 star:(</t>
+  </si>
+  <si>
+    <t>I have never rated a Drury less than 5 stars and it hurts me to do even 4 stars because I am a huge Drury fan--I always stay with them even if out of the way. This hotel is beautiful--loved the decor, beds comfortable and Erica at front was a sweetheart! So our problems began with ac--we thought it was just slow to cool down but it never budged below 74 and we were too warm to sleep--not hotels fault because we didnt report yet. Next day we told front desk and they sent repair guy right up--nice guy--thought had it fixed and it wasn't so they gave us another room-I know its all they can do but moving the dogs stuff, son was repairing his computer and I had put all my stuff up:( --it is a pain--so we moved. Air is great--works perfect. I go to take a relaxing bath and you can't--the faucet is loose and only shower works--so second problem--didnt call cause no repair guy late and don't want to move again. I went up to 9th floor--nice patio area there to hang out w view of city but I was there to do laundry. I buy detergent, load clothes and when I try to put chg in I see change thing is jammed--cant use. Buy more detergent and move clothes. 3 strikes Drury. The dog walking situation not great late at night--narrow strip nxt to...I have never rated a Drury less than 5 stars and it hurts me to do even 4 stars because I am a huge Drury fan--I always stay with them even if out of the way. This hotel is beautiful--loved the decor, beds comfortable and Erica at front was a sweetheart! So our problems began with ac--we thought it was just slow to cool down but it never budged below 74 and we were too warm to sleep--not hotels fault because we didnt report yet. Next day we told front desk and they sent repair guy right up--nice guy--thought had it fixed and it wasn't so they gave us another room-I know its all they can do but moving the dogs stuff, son was repairing his computer and I had put all my stuff up:( --it is a pain--so we moved. Air is great--works perfect. I go to take a relaxing bath and you can't--the faucet is loose and only shower works--so second problem--didnt call cause no repair guy late and don't want to move again. I went up to 9th floor--nice patio area there to hang out w view of city but I was there to do laundry. I buy detergent, load clothes and when I try to put chg in I see change thing is jammed--cant use. Buy more detergent and move clothes. 3 strikes Drury. The dog walking situation not great late at night--narrow strip nxt to road but I know its Dallas! So it is 4 stars because they tried to fix air, gave us another room, didn't find out about faucet till we left. I did also receive a message from manager saying he was sorry which was nice. Would I stay again--of course but need to keep an eye on repairs--still love ya Drury and yeah stuff happens.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I have never rated a Drury less than 5 stars and it hurts me to do even 4 stars because I am a huge Drury fan--I always stay with them even if out of the way. This hotel is beautiful--loved the decor, beds comfortable and Erica at front was a sweetheart! So our problems began with ac--we thought it was just slow to cool down but it never budged below 74 and we were too warm to sleep--not hotels fault because we didnt report yet. Next day we told front desk and they sent repair guy right up--nice guy--thought had it fixed and it wasn't so they gave us another room-I know its all they can do but moving the dogs stuff, son was repairing his computer and I had put all my stuff up:( --it is a pain--so we moved. Air is great--works perfect. I go to take a relaxing bath and you can't--the faucet is loose and only shower works--so second problem--didnt call cause no repair guy late and don't want to move again. I went up to 9th floor--nice patio area there to hang out w view of city but I was there to do laundry. I buy detergent, load clothes and when I try to put chg in I see change thing is jammed--cant use. Buy more detergent and move clothes. 3 strikes Drury. The dog walking situation not great late at night--narrow strip nxt to...I have never rated a Drury less than 5 stars and it hurts me to do even 4 stars because I am a huge Drury fan--I always stay with them even if out of the way. This hotel is beautiful--loved the decor, beds comfortable and Erica at front was a sweetheart! So our problems began with ac--we thought it was just slow to cool down but it never budged below 74 and we were too warm to sleep--not hotels fault because we didnt report yet. Next day we told front desk and they sent repair guy right up--nice guy--thought had it fixed and it wasn't so they gave us another room-I know its all they can do but moving the dogs stuff, son was repairing his computer and I had put all my stuff up:( --it is a pain--so we moved. Air is great--works perfect. I go to take a relaxing bath and you can't--the faucet is loose and only shower works--so second problem--didnt call cause no repair guy late and don't want to move again. I went up to 9th floor--nice patio area there to hang out w view of city but I was there to do laundry. I buy detergent, load clothes and when I try to put chg in I see change thing is jammed--cant use. Buy more detergent and move clothes. 3 strikes Drury. The dog walking situation not great late at night--narrow strip nxt to road but I know its Dallas! So it is 4 stars because they tried to fix air, gave us another room, didn't find out about faucet till we left. I did also receive a message from manager saying he was sorry which was nice. Would I stay again--of course but need to keep an eye on repairs--still love ya Drury and yeah stuff happens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r595720774-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>595720774</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>New Hotel In Town......Give It A Try</t>
+  </si>
+  <si>
+    <t>To be Quite honest, I never stay at Drury Inns. However, while visiting my son in Frisco, TX, I decided to stay there mainly because of its great location and because it is a new hotel. To my surprise it was very nice (I just hope they can keep it that way). Clean, spacious, friendly and as I said before, great location. Our room was located on one of the upper floors and at approximately 9:30 PM outside of our large window was an awesome fireworks display. It wasn't the 4th of July, it was coming from the minor league baseball stadium next to the Drury Inn (if you are interested in this just make sure you are on the correct side of the building). The complimentary breakfast in the morning was nice and of better quality than most hotels. I would stay there again. I was very pleased with everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>To be Quite honest, I never stay at Drury Inns. However, while visiting my son in Frisco, TX, I decided to stay there mainly because of its great location and because it is a new hotel. To my surprise it was very nice (I just hope they can keep it that way). Clean, spacious, friendly and as I said before, great location. Our room was located on one of the upper floors and at approximately 9:30 PM outside of our large window was an awesome fireworks display. It wasn't the 4th of July, it was coming from the minor league baseball stadium next to the Drury Inn (if you are interested in this just make sure you are on the correct side of the building). The complimentary breakfast in the morning was nice and of better quality than most hotels. I would stay there again. I was very pleased with everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r603060579-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>603060579</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>RoughRiders Game</t>
+  </si>
+  <si>
+    <t>Great place to stay if going to a RoughRiders baseball game.  It was easily walking distance to the ballpark.  Check in was a bit slow, but I believe they had multiple groups for different events coming in.  Our room was nicely laid out and was more than enough space for our family for a one night stay.  Everything in the hotel is still new.  Be forewarned that rooms facing the highway do get some late night street noise if your AC has kicked off.  But nothing the hotel can do about that.Breakfast was good quality with plenty of options.  Eating space was a bit tight on a busy weekend, but I didn’t see anyone unable to find a seat.All in all we would certainly stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay if going to a RoughRiders baseball game.  It was easily walking distance to the ballpark.  Check in was a bit slow, but I believe they had multiple groups for different events coming in.  Our room was nicely laid out and was more than enough space for our family for a one night stay.  Everything in the hotel is still new.  Be forewarned that rooms facing the highway do get some late night street noise if your AC has kicked off.  But nothing the hotel can do about that.Breakfast was good quality with plenty of options.  Eating space was a bit tight on a busy weekend, but I didn’t see anyone unable to find a seat.All in all we would certainly stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r602175622-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>602175622</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>The Complete Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful new hotel in the Frisco. Great location with easy access to shopping, dining and entertainment. Staff is so helpful and nice. Good breakfast and you can't beat the evening kickback. Very clean rooms and comfortable beds. Will definitely stay here again. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r600940715-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>600940715</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Going back for a second stay</t>
+  </si>
+  <si>
+    <t>We have stayed at a Drury in San Antonio and were excited to find this new property in Frisco! Stayed 2 nights early June 2018 and back again next week for another 2 night stay. A family member has repeated visits for medical treatment nearby and we have been looking for a property to call our "go to" and this is it! Check in was effortless and staff was pleasant and personable. We had the 2 queen suite and were impressed with the overall size of the suite, couch was comfy, beds perfect and room stayed cool. Bath was large, bright and had no issues with water temp or pressure. Pool is indoor, on top floor and good sized, although a bit heavy on the chlorine smell. Fresh air would have helped. Breakfast was tasty and felt a step above standard complementary breakfasts. Kickback was good for a quick bite and popcorn and sodas were always a treat.  Spoke to some of the ladies in housekeeping and they were so friendly and remembered us. Parking is below the property and easy to get around in. Decor is lovely throughout. Very nice change of pace from the hectic goings on in the west Texas oilfields where we live!MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at a Drury in San Antonio and were excited to find this new property in Frisco! Stayed 2 nights early June 2018 and back again next week for another 2 night stay. A family member has repeated visits for medical treatment nearby and we have been looking for a property to call our "go to" and this is it! Check in was effortless and staff was pleasant and personable. We had the 2 queen suite and were impressed with the overall size of the suite, couch was comfy, beds perfect and room stayed cool. Bath was large, bright and had no issues with water temp or pressure. Pool is indoor, on top floor and good sized, although a bit heavy on the chlorine smell. Fresh air would have helped. Breakfast was tasty and felt a step above standard complementary breakfasts. Kickback was good for a quick bite and popcorn and sodas were always a treat.  Spoke to some of the ladies in housekeeping and they were so friendly and remembered us. Parking is below the property and easy to get around in. Decor is lovely throughout. Very nice change of pace from the hectic goings on in the west Texas oilfields where we live!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r600924214-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>600924214</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>The Hotel is located in a good area. You can take a walk outside, during those cool evening hours when the sun goes down. The room was spacious, clean with two flat screen TVs. They changed their warm silk white sheets every day. The Amenities provided here is worthy of the amount of money charged. The Employees were friendly and ready to assist in way possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r600443987-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>600443987</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>My husband and I an our youngest daughter and grandsons stay at Drury Inns all the time!! I have never been disappointed until we stayed at this one!! Employees were not as friendly and helpful as the others ones we have stayed in!! The pool and hot tub were closed and that is what me and my grandsons had been looking forward to!! They just said we could go stay somewhere else!! Didn't not try to make it better in any way like a discount or something!! The room never got under 74 degrees the whole time we were there so I could not sleep well!! I was too hot!! Didn't bother telling anyone because they wouldn't have done anything about it anyway!!!! I didn't think I would ever be disappointed in a stay at Drury Inn but I most definitely was this time!! Also I wanted a waffle and I tried to make one and it stuck so bad I could not eat it!! I had heard and lady staying tell the manager they needed the spray for waffle machine and just told her they had sprayed and one time was enough for the entire breakfast time!! He was wrong and they should have gotton the spray and left it out for us to ues while making our pancakes!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>DruryHotels, General Manager at Drury Inn &amp; Suites Dallas Frisco, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>My husband and I an our youngest daughter and grandsons stay at Drury Inns all the time!! I have never been disappointed until we stayed at this one!! Employees were not as friendly and helpful as the others ones we have stayed in!! The pool and hot tub were closed and that is what me and my grandsons had been looking forward to!! They just said we could go stay somewhere else!! Didn't not try to make it better in any way like a discount or something!! The room never got under 74 degrees the whole time we were there so I could not sleep well!! I was too hot!! Didn't bother telling anyone because they wouldn't have done anything about it anyway!!!! I didn't think I would ever be disappointed in a stay at Drury Inn but I most definitely was this time!! Also I wanted a waffle and I tried to make one and it stuck so bad I could not eat it!! I had heard and lady staying tell the manager they needed the spray for waffle machine and just told her they had sprayed and one time was enough for the entire breakfast time!! He was wrong and they should have gotton the spray and left it out for us to ues while making our pancakes!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r598227533-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>598227533</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Stay at any Drury Inn anywhere and anytime!!!</t>
+  </si>
+  <si>
+    <t>Our family will stay at Drury Inn any time we have the opportunity. This Frisco location is the only DFW hotel.   Drury Inn does not disappoint.  My family loves the evening Kickback and breakfast.   The breakfast was crowded but the crowd loves Drury Inn and Frisco has a lot of sports events.  Drury Inn is consistent in their brand</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r597620470-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>597620470</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>We stayed at the Drury for 5 days for a baseball tournament. The hotel was immaculate, staff was very nice and breakfast and late afternoon snacks (more like a meal) were delicious.  This property is in a great location convenient to highways and may good restaurants. Highly recommended!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r597071556-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>597071556</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Great Staff, Exceptional Service, Wonderful Stay</t>
+  </si>
+  <si>
+    <t>Cannot begin to say enough good things about this place! The staff were so friendly &amp; helped  accommodate 2 baseball teams for 5 nights in a moments notice due to unforeseen circumstances.  They negotiated a rate for the team, were attentive the whole stay, rooms &amp; public spaces were exceptionally clean.  The free breakfast and evening happy hour were a huge plus when housing 30 teenage baseball players.  Will definitely stay there again if in the area!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r596882346-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>596882346</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Such  a beautiful experience!</t>
+  </si>
+  <si>
+    <t>My five night stay was an awesome experience at the Drury Inn hotel Frisco Texas.  The staff provided excellent customer service. The beds are extremely comfortable. The food is great ,  house keeping is great. This hotel truly exceeded my expectations 100%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r595928738-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>595928738</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Almost a 5 star</t>
+  </si>
+  <si>
+    <t>Excellent all the way around.  For the evening kick back they even use glass to serve wine rather than plastic.  My only complaint was the pool and hot tub, they weren't being filtered properly.  You could tell.  To be fair, I was in a hurry and forgot to tell the front desk.  I believe they would have taken care of the issue if I had brought it to their attention.  I would return to this location without any hesitation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r594855988-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>594855988</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Great Stuff and Great Experience!</t>
+  </si>
+  <si>
+    <t>The staff was amazing, very nice hotel. The experience at this hotel was over the top. Our baseball team absolutely loved our stay at the hotel. We will diffidently stay here on our next trip to Frisco. First Class Hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r594573886-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>594573886</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Love the Drury Inn</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel 3 different times and it has always been a great stay.The rooms and hotel are very clean.Staff members are so nice.Great breakfast and midafternoon snack. Hot tub and pool are amazing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r594403329-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>594403329</t>
+  </si>
+  <si>
+    <t>Best hotel experience ever!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would give this hotel 10 stars if allowed!! The front desk staff was awesome (especially Ms Erica). Our accommodations were extended because of this! All of the staff members were excellent.  I have never had a hotel experience like this one. Normally there is at least one thing to complain about/that needs improvement. I could not find one(This is unusual for me,lol)It almost felt like home and I did not want to leave. From checking in to checking out, I would give this hotel a 10. My first experience of the </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r594163622-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>594163622</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great staff &amp; great for our purpose </t>
+  </si>
+  <si>
+    <t>Thank you for the hospitality… We were here five days and had no complaints.  We had time to enjoy the common areas and play games with friends while we were here.  Front desk people were always so nice. It would be nice if they put more washcloths in the room… And housekeeping skipped our room twice during our stay, but we did fine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r590728877-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>590728877</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Best hotel ever!</t>
+  </si>
+  <si>
+    <t>So we've been looking for a drury to open in the Dallas area and were so excited to see this open.  They fulfilled a very odd social request of mine,  but it honestly just made my trip.  The rooms are clean and the 5:30 kick back is awesome.  Thank you for being a hotel that values customer service! We use drury whenever we can when we travel and will continue to do so after this great experience!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r589370359-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>589370359</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Family Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New hotel and staff was amazing. No problems at all. Rooms were clean and beds comfortable. Visit the 9th floor it’s pretty cool. The Drury is big on customer service and it shows! Breakfast Buffet was also fantastic </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r588607738-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>588607738</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Beautiful high mid level hotel.</t>
+  </si>
+  <si>
+    <t>I love this property. Great location next to the convention arena, shopping and eateries. Being brand new, there would be little complaints anyway. What makes this property a joy to stay at, is the staff and management. Super accommodating, friendly and they do a marvelous job catering to your needs. Clean, new, breakfast and dinner is a definite bonus. I stay at a lot of Drury Inn and Suites, this is my new favorite.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r588529036-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>588529036</t>
+  </si>
+  <si>
+    <t>First Time and very pleased</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Drury Inn &amp; Suites.  We couldn't be more pleased.  The hotel is new and in a great location in Frisco.  We decided to go with a suite because the rate wasn't much more.  We had a very nice and large room.  The breakfast/evening meal area is large and well maintained.  We were there on a weekend and there were several youth soccer teams and families at the hotel.  The meal areas were busy and sometimes hard to get around. It also took extra time to get an elevator.  On Sunday evening it was completely different and much less crowded.  The staff was great at the front desk and dining area.  Very attentive to your needs and always smiling.  The pool is on the top floor. There is also a patio area and great view of the Frisco area.  Even though it was our first visit to a Drury it definitely won't be our last.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Drury Inn &amp; Suites.  We couldn't be more pleased.  The hotel is new and in a great location in Frisco.  We decided to go with a suite because the rate wasn't much more.  We had a very nice and large room.  The breakfast/evening meal area is large and well maintained.  We were there on a weekend and there were several youth soccer teams and families at the hotel.  The meal areas were busy and sometimes hard to get around. It also took extra time to get an elevator.  On Sunday evening it was completely different and much less crowded.  The staff was great at the front desk and dining area.  Very attentive to your needs and always smiling.  The pool is on the top floor. There is also a patio area and great view of the Frisco area.  Even though it was our first visit to a Drury it definitely won't be our last.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r585782483-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>585782483</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Clean,Comfortable and Great Staff!</t>
+  </si>
+  <si>
+    <t>A new, clean, and comfortable hotel.  Excellent management and exceptional staff!  I had forgotten some clothes in drawer, and housekeeping gathered it and bagged it for me, then I was able to return and retrieve my clothes.  Thankful for their honesty and caring for me as a guest.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r584665329-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>584665329</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>First time but not my last!</t>
+  </si>
+  <si>
+    <t>I stayed at Drury because they had the cheapest rate in the area I was staying but I wasn’t expecting the value of my stay, breakfast every morning, appetizers and 3 drink ever night all included in the stay. The staff was AWESOME and the room was super clean!!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r583962824-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>583962824</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>"A new and pleasant experience".</t>
+  </si>
+  <si>
+    <t>We made a trip to the Frisco area to meet our new baby grandson.  we have never stayed at a Drury hotel but this one was conveniently located to where we were visiting.  "Boy what we have been missing" we were sold on the place just moments after entering the lobby.  Erika's friendly smile and enthusiastic welcome were just the beginning.  All the staff was so friendly and always greeting with a smile made us feel very welcome. we have never experienced this at other hotels we have stayed at.    Check in and check out was very quick and easy.  the room was great.  Breakfast and the Kickback were excellent.  we definitely will be back and plan to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We made a trip to the Frisco area to meet our new baby grandson.  we have never stayed at a Drury hotel but this one was conveniently located to where we were visiting.  "Boy what we have been missing" we were sold on the place just moments after entering the lobby.  Erika's friendly smile and enthusiastic welcome were just the beginning.  All the staff was so friendly and always greeting with a smile made us feel very welcome. we have never experienced this at other hotels we have stayed at.    Check in and check out was very quick and easy.  the room was great.  Breakfast and the Kickback were excellent.  we definitely will be back and plan to stay there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r580869661-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
-    <t>55870</t>
-  </si>
-  <si>
-    <t>12502285</t>
-  </si>
-  <si>
     <t>580869661</t>
   </si>
   <si>
@@ -174,13 +561,22 @@
     <t>This hotel was excellent.  The rooms were clean and very comfortable.  Check in was quick and easy.  The staff was very friendly and made you feel at home.  Breakfast was nice and so was the evening snacks.</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>751michaelk</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r580431851-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
+  </si>
+  <si>
+    <t>580431851</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Able to recover</t>
+  </si>
+  <si>
+    <t>I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I...I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I missed the 5:00 kickback which is a meal by itself and cocktails!!!  We returned to the room later that night, had a good nights rest, followed by a filling breakfast and was once again on the road back to Memphis. My stay was less than 24 hours, but It didn't feel like it. If I could have stayed longer I would have, I definitely plan to stay there again. Kudos to Erika, thanks so much for the pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I...I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I missed the 5:00 kickback which is a meal by itself and cocktails!!!  We returned to the room later that night, had a good nights rest, followed by a filling breakfast and was once again on the road back to Memphis. My stay was less than 24 hours, but It didn't feel like it. If I could have stayed longer I would have, I definitely plan to stay there again. Kudos to Erika, thanks so much for the pleasant stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r579478392-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
@@ -198,39 +594,9 @@
     <t>We had to make a business trip to the Dallas area and found the Drury Inn in Frisco.  We were greeted by Kammisha and Caroline.  They asked us if we had stayed at that facility before and we told them we had never stayed in the Dallas area before.  They were both extremely helpful in pointing out local dining and shopping.  The Kickback service at the hotel was more than adequate for dinner with salad, soup, chicken, hotdogs and baked potatoes.  Bernard was the bartender and also provided great service.  The rooftop on the ninth floor was a great place to enjoy a glass of wine.  The room was very clean as was the rest of the hotel.  It is relatively new, about 9 months.  A great stay and a great value.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>We had to make a business trip to the Dallas area and found the Drury Inn in Frisco.  We were greeted by Kammisha and Caroline.  They asked us if we had stayed at that facility before and we told them we had never stayed in the Dallas area before.  They were both extremely helpful in pointing out local dining and shopping.  The Kickback service at the hotel was more than adequate for dinner with salad, soup, chicken, hotdogs and baked potatoes.  Bernard was the bartender and also provided great service.  The rooftop on the ninth floor was a great place to enjoy a glass of wine.  The room was very clean as was the rest of the hotel.  It is relatively new, about 9 months.  A great stay and a great value.More</t>
   </si>
   <si>
-    <t>tabsmac</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r580431851-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
-  </si>
-  <si>
-    <t>580431851</t>
-  </si>
-  <si>
-    <t>05/15/2018</t>
-  </si>
-  <si>
-    <t>Able to recover</t>
-  </si>
-  <si>
-    <t>I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I...I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I missed the 5:00 kickback which is a meal by itself and cocktails!!!  We returned to the room later that night, had a good nights rest, followed by a filling breakfast and was once again on the road back to Memphis. My stay was less than 24 hours, but It didn't feel like it. If I could have stayed longer I would have, I definitely plan to stay there again. Kudos to Erika, thanks so much for the pleasant stay.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I...I'm from Memphis, had two graduations to attend in one weekend. The first was in Little Rock, AR at 7:30 p.m. and the second in Commerce Texas at 8:30 in the morning. So we drove most of the night to get to the second graduation on time.  We were dog tired and wanted to rest after everything was over. We got to the Drury Inn around 11:30, I knew it was too early to ck in but I wanted to ask. This was when I met Erika. She was very courteous and explained that it was too early to ck in because the rooms were not ready, which I understood. Then she said why don't you get something to eat, and gave us the name of a nearby restaurant. Gloria's was glorious!!!. I was able to have a good meal in a wonderful atmosphere with good mimosa, and then had energy to walk around the nearby mall. When we returned to the hotel, I had planned to just wait in the lobby until ck in time, but Erika remembered us and when we arrived stated I've got your rooms ready.  I feel asleep as soon as my head hit the pillow. The bed had a pillow top that was so comfortable and the pillows were just right. We didn't want to get up for the dinner we were invited to at 5:00. I really didn't want to go because I missed the 5:00 kickback which is a meal by itself and cocktails!!!  We returned to the room later that night, had a good nights rest, followed by a filling breakfast and was once again on the road back to Memphis. My stay was less than 24 hours, but It didn't feel like it. If I could have stayed longer I would have, I definitely plan to stay there again. Kudos to Erika, thanks so much for the pleasant stay.More</t>
-  </si>
-  <si>
-    <t>Andrew O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r578387841-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -246,9 +612,6 @@
     <t>The best hotel I have ever had the pleasure of visiting!! My wife and I are in town for medical appointments and we were greeted by Erica who was extra helpful and friendly. Our next interaction was with Kimmisha and the manger Mark; both were wonderful to work with. If you’re ever in the Frisco area I would strongly suggest staying at this wonderful establishment!!</t>
   </si>
   <si>
-    <t>GRO3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r577766291-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -264,9 +627,6 @@
     <t>Drury Inn had lost me as a customer years ago however on a recent business trip I decided to give them another try and am I so glad I did.  This location is a newer build which makes a world of difference.  The staff is caring and kind no matter if you are checking in, returning from a long day or heading out for the morning they always take time to say hello and make eye contact.  The 9th floor has amazing views of Frisco along with a solid workout area and outdoor terrace. I will definitely be staying here again.</t>
   </si>
   <si>
-    <t>RAJAN74</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r575726877-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -285,9 +645,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t>898samos</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r575232867-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -303,9 +660,6 @@
     <t>Excellent Stay, staff was very nice, bed was very comfortable. There was something going on with a lot of kids being there so they put me on another floor away for them, it was very quite. I would recommend the say.</t>
   </si>
   <si>
-    <t>Jackie J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r572176495-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -324,9 +678,6 @@
     <t>We loved our stay at Drury!  We only stayed one night (in town for a baseball tournament), but we will definitely be back if we are in the area again!First off, the staff were all amazing!  We did not walk past any employee (whether it be a manager, front desk or house keeper) that did not speak to us and ask how we were doing. Everyone was so polite and courteous. The happy hour appetizers and drinks were great. We didn’t even have to eat out for dinner because there were so many choices. The pool and hot tub were just right, too. The breakfast had a lot of options and no one should leave hungry!  That saved us a lot by not having to eat out. Overall this hotel is not only beautiful, but the overall experience was top notch!  We will definitely tell our friends and family and we look forward to our next trip here. More</t>
   </si>
   <si>
-    <t>K S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r571860732-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -345,9 +696,6 @@
     <t>I love Drury Inn &amp; Suites! This is the only chain I use for my family. I highly recommend this chain. The quality is always amazing. Erica was absolutely wonderful. She made us feel like we were at home. Drury Inn &amp; Suites is so lucky to have her. She deserves a raise. The indoor pool was very nice. The children had loads of fun swimming in it. Our room was super clean as always with the Drury chain. We had 2 queen beds and a sofa bed. The room had a mini fridge. I almost did not want to leave the bed because it was so comfortable. We enjoyed the breakfast and dinner buffet. My family's entire spring break was awesome. I will be back again. More</t>
   </si>
   <si>
-    <t>Meko</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r571694790-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -363,9 +711,6 @@
     <t>This hotel was meant for a quick 1 night last minute trip. But wow how impressive to find a fantastic hotel by accident. The showers rock, bed is so comfortable, clean rooms, free breakfast and happy hour w free drinks and light dinner, super friendly staff and excellent price. Will be my first pick in future. Nice job!!!</t>
   </si>
   <si>
-    <t>IowaGirl1206</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r569192722-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -393,9 +738,6 @@
     <t>This hotel is in a good location for shopping and things to do.  It has a decent breakfast and snacks out on week nights that are appreciated.  But in our room we kept hearing scraping and banging noises.  We couldn't figure out what in the world it could be.  We were too tired to ask to change rooms.  But it was loud and woke us up off and on.  When I checked out I told the people at the desk and they said, "Oh, your room was under the fitness center".  I guess it is on a higher floor.  So if you stay here ask for a room where you don't hear weights dropping, etc. because it is a 24 hour fitness center and it was used in the middle of the night.  Also, when we checked in we found a few peanuts on the floor of our room that made us think the room hadn't been vacuumed.  Since we were so tired we decided to ignore it but then when we were packing up we discovered more.  The bathroom was very clean as was the breakfast area.  There are many hotels in this area so I probably wouldn't stay here again.More</t>
   </si>
   <si>
-    <t>pinballplus</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r568879066-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -411,9 +753,6 @@
     <t>The staff was super friendly. The hotel provides a great value for guests providing 3 drinks per day and serving a mid afternoon snack. The manager came out and asked us how our breakfast was every day of our stay. I will stay here again.</t>
   </si>
   <si>
-    <t>skv13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r566386981-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -432,9 +771,6 @@
     <t>We live in the area but went here for a couple of days just to get away over Spring Break. The hotel looked new, it was clean, and the front desk was very friendly. The room was large. It had two queen beds and a living room with a fold out couch. The fold out couches in hotels are usually terrible but my son said this one was pretty comfortable.It has a indoor pool and hot tub. We did not eat breakfast here but it looked good. They also have food available in the evenings. The beds were comfortable and we got a good rate. It very close to Stonebriar Mall so you are very close to a movie theater and lots of places to eat. Would stay here again in a second. Not a single complaint I can think of.More</t>
   </si>
   <si>
-    <t>Carterpartyof3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r565339422-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -450,9 +786,6 @@
     <t xml:space="preserve">I normally stay at the Drury in Austin. This one is by far the best. Walk in and get a friendly greeting from Erica. Come back later after some shopping and get more great customer service from Ariel &amp; Kimmishia. Despite 3 basketball teams and 2 buses full of Canadian tourists in the hotel at the same time everything was suburb. Words can’t explain the kickback. There was no need for me to spend money on dinner or a relaxing adult beverage. Loved the indoor pool and whirlpool. I will definitely be back and I hope the same staff will be there. </t>
   </si>
   <si>
-    <t>HeatherNicole S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r564119976-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -472,9 +805,6 @@
   </si>
   <si>
     <t>From the time I walked into the lobby and greeted by Kimmeshia - I knew this hotel was going to supersede my expectations.  She was warm and very caring.  I had family in town and she was so accommodating and caring - not just for ratings, it was truly genuine.  The room was very clean and comfortable.  The entire staff was friendly  I met Brittany in the dining area and she always asked about our day.  Erica was at the front desk when we checked out and she was also kind and caring.  She had wonderful things to say about working for Drury.  It says a lot when employees truly enjoy what they do and the companies they work for take care of them.  I will definitely be back!More</t>
-  </si>
-  <si>
-    <t>GoHeeterGo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r562830521-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
@@ -503,9 +833,6 @@
 The only downsides are it can be noisy if you have a room on the side closest to the highway. The hot tub is not working...This is my fourth or fifth stay at Drury property and they never disappoint! I was so happy one was built in Frisco, and kept waiting for an excuse to try it out since I don't live too terribly far away. So, we had several hockey games next door at the Dr. Pepper Arena and this fit the bill perfectly. You can walk to the Dr. Pepper Arena!Drury Hotels include an amazing breakfast buffet and evening snacks (more like dinner) and up to 3 alcoholic beverages for adults. (Called the kick-back...no need to go out for dinner...there's plenty here!) My son loves the free popcorn and soda, usually served from 3-10 pm. Note - on the weekends, it can get crowded during eating times. But staff does a good job restocking everything.Our room was very spacious, with two queen beds and a sitting are with a couple chairs. We had several teammates staying in the hotel too, and the kids had a blast swimming in the indoor pool and hanging out upstairs in the 9th floor common area - it has a lounge and outdoor patio terrace.Great Location in Frisco, just off tollway. Close to IKEA, Dr. Pepper Ice Hockey Arena and Rough Riders Baseball Stadium, and Cowboys Practice Facility, etc.The only downsides are it can be noisy if you have a room on the side closest to the highway. The hot tub is not working and I was really looking forward to a soak. I would definitely stay here again. We will probably plan a family "stay-cation" sometime. It makes for a great little weekend away.More</t>
   </si>
   <si>
-    <t>Cassidy C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r562717795-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -516,9 +843,6 @@
   </si>
   <si>
     <t xml:space="preserve">We absolutely loved staying at this hotel! We received amazing service from Erica at the front desk from check-in until check out! From the free snack buffet, drinks, and amazing breakfast we were well fed! The room was nice and comfortable. Can’t say enough what a great stay we had! </t>
-  </si>
-  <si>
-    <t>juhamilton</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r562347927-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
@@ -537,16 +861,10 @@
 My two complaints. First, the TV in the main living area would not turn on! I'm not stupid and I know how to turn on a TV but it would not work. Checked the plug, and the remote. The remote light went on when I hit the power button but TV would not turn on. Unfortunately I had work to do and needed to sit at the desk and really wanted to have the TV on the Olympics while working. So I used the room phone and called for service and was told someone would be "right up immediately".  I delayed taking a shower and changing into my sleepwear bc I wanted to be dressed for whomever came in to fix it. One hour and 20 minutes later I called them back and said forget it, I was tired of waiting and wanted to start getting ready for bed. Basically they said "Ok, sorry it didn't work out." My suggestion...Convenient as it's right off the Tollway (although it was a bit noisy on the side of the hotel closest to the tollway). Parking is a breeze. Hotel is new, modern, clean, and the staff I met were very friendly. Elevator was prompt and rarely full. Room was immaculate and room itself was large and had all the appointments you would expect in a King suite (writing desk, large tv's, refrigerator, blackout curtains that were exceptional in their function, etc).My two complaints. First, the TV in the main living area would not turn on! I'm not stupid and I know how to turn on a TV but it would not work. Checked the plug, and the remote. The remote light went on when I hit the power button but TV would not turn on. Unfortunately I had work to do and needed to sit at the desk and really wanted to have the TV on the Olympics while working. So I used the room phone and called for service and was told someone would be "right up immediately".  I delayed taking a shower and changing into my sleepwear bc I wanted to be dressed for whomever came in to fix it. One hour and 20 minutes later I called them back and said forget it, I was tired of waiting and wanted to start getting ready for bed. Basically they said "Ok, sorry it didn't work out." My suggestion would be don't tell your guests someone will be there immediately if they aren't coming in at least 1/2 hour and you might want to act surprised when they haven't shown in an hour and 20 minutes.Second issue I had was the frig in the room froze my drink (it was just in there 7 hours). There were no controls on the frig (at least not that I could see) so there was no way to adjust the temperature. The problem wasn't the frozen drink per se, it was that I often travel with medications that require refrigeration. Freezing my medication would destroy it's efficacy. Thankfully I wasn't traveling with it this night.I will return.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Convenient as it's right off the Tollway (although it was a bit noisy on the side of the hotel closest to the tollway). Parking is a breeze. Hotel is new, modern, clean, and the staff I met were very friendly. Elevator was prompt and rarely full. Room was immaculate and room itself was large and had all the appointments you would expect in a King suite (writing desk, large tv's, refrigerator, blackout curtains that were exceptional in their function, etc).
 My two complaints. First, the TV in the main living area would not turn on! I'm not stupid and I know how to turn on a TV but it would not work. Checked the plug, and the remote. The remote light went on when I hit the power button but TV would not turn on. Unfortunately I had work to do and needed to sit at the desk and really wanted to have the TV on the Olympics while working. So I used the room phone and called for service and was told someone would be "right up immediately".  I delayed taking a shower and changing into my sleepwear bc I wanted to be dressed for whomever came in to fix it. One hour and 20 minutes later I called them back and said forget it, I was tired of waiting and wanted to start getting ready for bed. Basically they said "Ok, sorry it didn't work out." My suggestion...Convenient as it's right off the Tollway (although it was a bit noisy on the side of the hotel closest to the tollway). Parking is a breeze. Hotel is new, modern, clean, and the staff I met were very friendly. Elevator was prompt and rarely full. Room was immaculate and room itself was large and had all the appointments you would expect in a King suite (writing desk, large tv's, refrigerator, blackout curtains that were exceptional in their function, etc).My two complaints. First, the TV in the main living area would not turn on! I'm not stupid and I know how to turn on a TV but it would not work. Checked the plug, and the remote. The remote light went on when I hit the power button but TV would not turn on. Unfortunately I had work to do and needed to sit at the desk and really wanted to have the TV on the Olympics while working. So I used the room phone and called for service and was told someone would be "right up immediately".  I delayed taking a shower and changing into my sleepwear bc I wanted to be dressed for whomever came in to fix it. One hour and 20 minutes later I called them back and said forget it, I was tired of waiting and wanted to start getting ready for bed. Basically they said "Ok, sorry it didn't work out." My suggestion would be don't tell your guests someone will be there immediately if they aren't coming in at least 1/2 hour and you might want to act surprised when they haven't shown in an hour and 20 minutes.Second issue I had was the frig in the room froze my drink (it was just in there 7 hours). There were no controls on the frig (at least not that I could see) so there was no way to adjust the temperature. The problem wasn't the frozen drink per se, it was that I often travel with medications that require refrigeration. Freezing my medication would destroy it's efficacy. Thankfully I wasn't traveling with it this night.I will return.More</t>
   </si>
   <si>
-    <t>veronetravis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r562007029-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -562,9 +880,6 @@
     <t>This is not The Drury Inn from several years ago! It is new, modern, clean and comfortable. Pluses to that are the happy hour with drinks and dinner. Tonight’s menu is chicken, pasta, potato bar, hot dogs, nachos, chili, and potato soup. A meal not just a snack! The staff is professional and attentive.</t>
   </si>
   <si>
-    <t>Bluu-Room</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r558617003-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -583,9 +898,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t>ReneeShortbread</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r553379419-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -601,9 +913,6 @@
     <t>This place is spacious, clean and inviting. Staff was friendly and always helpful and courteous. Great breakfast included with hot foods (eggs, sausage, biscuits, make your own waffles) and quick continental as well ( donuts, yogurt, muffins). In the evening there was food for a dinner if you eat light. It was a welcome to me after a 13 hour driving day to have choices of real food waiting (salad, chicken strips, nachos, hot dogs, chili, baked potato, pasta) and free drinks including a cocktail. All this and a comfortable bed, soft pillows, quiet room. It is a 5 star hotel for a reasonable price.</t>
   </si>
   <si>
-    <t>Wilma929</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r552491578-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -619,9 +928,6 @@
     <t>This new hotel is beautiful, and comfortable. While we didn't take advantage of the meal/drinks offered, we did enjoy the full breakfast. The staff was accommodating. We were able to check in early and did get the adjoining rooms we requested. The pool was used by our kids and they enjoyed it.  The hot tub had no water in it, but that didn't affect our stay.</t>
   </si>
   <si>
-    <t>txwalkers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r552343246-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -637,12 +943,6 @@
     <t xml:space="preserve">This is a clean, beautiful hotel right in the center of all the activity in Frisco. Easy to get to right off the Tollway. The kickback program with dinner and drinks in the evening was a fun perk of staying here. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>kimmR2228NF</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r551177956-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -661,9 +961,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>Jami13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r550536280-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -688,9 +985,6 @@
     <t>This is a brand new hotel and it is beautiful. Everyone who works here is very nice and accommodating.  We stayed here between Christmas and New Years and the hotel was decorated beautifully. We enjoyed all the perks when staying at a Drury Inn, free breakfast, free WiFi, free kickback meal in the evening. It makes the trip very cost effective. The only negative we had was the hot tub was out of order. One of the main reasons we like to get away is so we can relax in the hot tub but unfortunately that was not the case during this trip. It really surprised us since this is a brand new hotel. When we inquired about it at the front desk, we were told it would be out of order for the next couple of months. We do plan on returning to this Drury in the future - after the hot tub is fixed. More</t>
   </si>
   <si>
-    <t>Winks</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r550064608-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -706,9 +1000,6 @@
     <t>I love the Drury chain! For the same price and often cheaper than other hotels you get mega benefits! Both hot supper and breakfast. Three free drinks at supper between 5:30 and 7pm. Soda and free popcorn whenever. Free local and long distance phone calls. Lovely comfy large decorated rooms. This chain is always my first choice!</t>
   </si>
   <si>
-    <t>546lovetotravel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r548444857-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -724,9 +1015,6 @@
     <t>Very friendly, attentive staff. Clean, comfortable room. Convenient location. Excellent morning breakfast buffet with scrambled eggs, sausage, potatoes, waffles, bagels, oatmeal, cereal, biscuits, and gravy, muffins, toast, coffee, juice, and sodas.  Evening snacks provided as well. Quiet hotel....great for sleeping! Free WiFi without any passwords or logins. ATM in lobby. Quick check-out. Small Microwave and fridge in room as well as coffee maker and hair dryer.</t>
   </si>
   <si>
-    <t>Terps92</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r547354576-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -751,9 +1039,6 @@
     <t>I stayed here on a business trip. The hotel was nice for business. Internet access was free and worked well. The meeting rooms worked out well for our conference. The gym consisted of 3 treadmills, 2 elliptical machines, a bike and some free weights. They did also have an indoor pool.  The rooms were a nice size. Restaurants are nearby and you would probably take an Uber to get to them, however, if you feel up to walking they are probably 15-20 minutes away from some nice restaurant options. They also offer a breakfast buffet and a dinner buffet that comes with the room from 5:30 - 7 PM. They had baked potatoes, hot dogs, pasta, grilled chicken, salad and soups. I wouldn't make a meal out of it, although you certainly could. It is probably better for a light snack and then go out to dinner around town. Two minor issues that management should look into: the 9th floor terrace is concave and the staff could have cleaned the mens room up more often as there were times there were no towels to dry your hands. I would stay here again.More</t>
   </si>
   <si>
-    <t>Babs K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r545057897-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -767,9 +1052,6 @@
   </si>
   <si>
     <t>We stayed just one night during our travels.  Clean, modern linens, large bathroom,  very comfortable bed.  Kickback and breakfast was delicious, plenty and hot.  Staff was very friendly and helpful.  We drove 13 miles out of our way just to stay at this Drury Inn and was not disappointed.   Would definitely stay here again</t>
-  </si>
-  <si>
-    <t>Eric V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r534917103-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
@@ -797,9 +1079,6 @@
 When we checked in, we were given cards for happy hour each day from 5:30-7 PM. Happy hour did not disappoint. You get 3 free alcoholic drinks a day, and they don't skimp on the booze. They had penne pasta, baked potatoes, nachos with cheese, and grilled chicken, plus liquor, 4 different kinds of wine, and cocktails, definitely not the norm at a hotel, but definitely appreciate. All free of charge, just for being a guest....This is a brand new hotel, been open about a month, and it shows. Very nice building with a parking garage right behind, and located right off the Dallas North Tollway in Frisco. We booked this place after a disappointing stay at another hotel with a brick-like bed. We called over to this hotel, and were assured the beds were top notch. They were not wrong, it was like sleeping on a cloud.We arrived at the hotel and were greeted with smiles from everyone. This was the "norm" during our entire stay, from maintenance guys to other employees, everyone was so nice and welcoming. We were pleasantly surprised at our double queen room which was super big. After a good night's rest, we hit the breakfast area and there was quite a diverse menu including muffins, biscuits and gravy, scrambled eggs, sausage, waffle maker, oatmeal with fixings, a fountain soda machine, many different kinds of coffee and fruits, and others. Everything was fresh.When we checked in, we were given cards for happy hour each day from 5:30-7 PM. Happy hour did not disappoint. You get 3 free alcoholic drinks a day, and they don't skimp on the booze. They had penne pasta, baked potatoes, nachos with cheese, and grilled chicken, plus liquor, 4 different kinds of wine, and cocktails, definitely not the norm at a hotel, but definitely appreciate. All free of charge, just for being a guest. It should be noted that this hotel also had a beautiful outdoor terrace on the 9th floor, and they do happy hour up there as well.They do have an indoor pool and hot tub, but it should be noted that the hot tub is not working at the time of this review, and it has a major leak in it, should be down for several weeks.The only negative was the WIFI, which in our room felt like dial-up, it just crawled for hours. I complained to the manager, who gave me the "internet help" line. 10 minutes later, after the tech flipped the box, it worked just fine. The manager even went so far as to reduce one nights stay by half, just phenomenal customer service.Finally, pets are welcome! It was $25/night for a pet, and even though ours had an accident on the tile floor, it was no problem and promptly cleaned up.This was a pricey stay, but in our opinion, worth it. Great job Drury Inn staff, you made the stay great for us.More</t>
   </si>
   <si>
-    <t>stephnsteve2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r533582939-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -813,9 +1092,6 @@
   </si>
   <si>
     <t>Love Love  Drury inn, This is a brand new hotel , located right off the hotel. The beds are amazing and comfortable. The breakfast is always great and you can make your own waffles. The pool was nice and they have a very nice outdoor patio that makes this hotel very upscale. I loved the basement parking, makes it very accessible to your car.</t>
-  </si>
-  <si>
-    <t>Beverly W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d12502285-r524191677-Drury_Inn_Suites_Dallas_Frisco-Frisco_Texas.html</t>
@@ -1341,125 +1617,109 @@
       <c r="A2" t="n">
         <v>65130</v>
       </c>
-      <c r="B2" t="n">
-        <v>132069</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65130</v>
       </c>
-      <c r="B3" t="n">
-        <v>132070</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="n">
         <v>5</v>
       </c>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1470,119 +1730,107 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65130</v>
       </c>
-      <c r="B4" t="n">
-        <v>132071</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65130</v>
       </c>
-      <c r="B5" t="n">
-        <v>132072</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1596,54 +1844,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65130</v>
       </c>
-      <c r="B6" t="n">
-        <v>132073</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
         <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1663,186 +1907,178 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65130</v>
       </c>
-      <c r="B7" t="n">
-        <v>132074</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65130</v>
       </c>
-      <c r="B8" t="n">
-        <v>132075</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
+        <v>91</v>
+      </c>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65130</v>
       </c>
-      <c r="B9" t="n">
-        <v>3988</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1856,51 +2092,51 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65130</v>
       </c>
-      <c r="B10" t="n">
-        <v>25059</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1913,54 +2149,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65130</v>
       </c>
-      <c r="B11" t="n">
-        <v>132076</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1974,54 +2206,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65130</v>
       </c>
-      <c r="B12" t="n">
-        <v>132077</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2032,141 +2260,119 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>122</v>
-      </c>
-      <c r="X12" t="s">
-        <v>123</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65130</v>
       </c>
-      <c r="B13" t="n">
-        <v>132078</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65130</v>
       </c>
-      <c r="B14" t="n">
-        <v>132079</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2177,54 +2383,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65130</v>
       </c>
-      <c r="B15" t="n">
-        <v>132080</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2238,188 +2440,164 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65130</v>
       </c>
-      <c r="B16" t="n">
-        <v>132081</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65130</v>
       </c>
-      <c r="B17" t="n">
-        <v>132082</v>
-      </c>
-      <c r="C17" t="s">
-        <v>152</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65130</v>
       </c>
-      <c r="B18" t="n">
-        <v>79067</v>
-      </c>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2433,121 +2611,107 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65130</v>
       </c>
-      <c r="B19" t="n">
-        <v>132083</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="O19" t="s">
-        <v>170</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65130</v>
       </c>
-      <c r="B20" t="n">
-        <v>132084</v>
-      </c>
-      <c r="C20" t="s">
-        <v>172</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2561,64 +2725,56 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65130</v>
       </c>
-      <c r="B21" t="n">
-        <v>132085</v>
-      </c>
-      <c r="C21" t="s">
-        <v>178</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
       </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
         <v>5</v>
       </c>
@@ -2632,124 +2788,130 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65130</v>
       </c>
-      <c r="B22" t="n">
-        <v>132086</v>
-      </c>
-      <c r="C22" t="s">
-        <v>185</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s">
-        <v>170</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65130</v>
       </c>
-      <c r="B23" t="n">
-        <v>132087</v>
-      </c>
-      <c r="C23" t="s">
-        <v>191</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="J23" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="n">
         <v>5</v>
       </c>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2760,61 +2922,53 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65130</v>
       </c>
-      <c r="B24" t="n">
-        <v>132088</v>
-      </c>
-      <c r="C24" t="s">
-        <v>197</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="O24" t="s">
-        <v>203</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>5</v>
       </c>
@@ -2831,66 +2985,62 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65130</v>
       </c>
-      <c r="B25" t="n">
-        <v>132089</v>
-      </c>
-      <c r="C25" t="s">
-        <v>204</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
         <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -2902,180 +3052,172 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65130</v>
       </c>
-      <c r="B26" t="n">
-        <v>132090</v>
-      </c>
-      <c r="C26" t="s">
-        <v>211</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="K26" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="O26" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>217</v>
-      </c>
-      <c r="X26" t="s">
-        <v>218</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65130</v>
       </c>
-      <c r="B27" t="n">
-        <v>132091</v>
-      </c>
-      <c r="C27" t="s">
-        <v>220</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65130</v>
       </c>
-      <c r="B28" t="n">
-        <v>132092</v>
-      </c>
-      <c r="C28" t="s">
-        <v>226</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3089,62 +3231,58 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65130</v>
       </c>
-      <c r="B29" t="n">
-        <v>132093</v>
-      </c>
-      <c r="C29" t="s">
-        <v>232</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="J29" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="K29" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3153,61 +3291,53 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>238</v>
-      </c>
-      <c r="X29" t="s">
-        <v>239</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65130</v>
       </c>
-      <c r="B30" t="n">
-        <v>132094</v>
-      </c>
-      <c r="C30" t="s">
-        <v>241</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="J30" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O30" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3221,60 +3351,60 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65130</v>
       </c>
-      <c r="B31" t="n">
-        <v>6497</v>
-      </c>
-      <c r="C31" t="s">
-        <v>247</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
       <c r="S31" t="n">
         <v>5</v>
       </c>
@@ -3288,139 +3418,1532 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65130</v>
       </c>
-      <c r="B32" t="n">
-        <v>132095</v>
-      </c>
-      <c r="C32" t="s">
-        <v>255</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="O32" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65130</v>
       </c>
-      <c r="B33" t="n">
-        <v>116570</v>
-      </c>
-      <c r="C33" t="s">
-        <v>261</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="J33" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="K33" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s">
-        <v>267</v>
-      </c>
-      <c r="O33" t="s">
-        <v>203</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>208</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" t="s">
+        <v>235</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>237</v>
+      </c>
+      <c r="X35" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>241</v>
+      </c>
+      <c r="J36" t="s">
+        <v>242</v>
+      </c>
+      <c r="K36" t="s">
+        <v>243</v>
+      </c>
+      <c r="L36" t="s">
+        <v>244</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>246</v>
+      </c>
+      <c r="J37" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" t="s">
+        <v>248</v>
+      </c>
+      <c r="L37" t="s">
+        <v>249</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>252</v>
+      </c>
+      <c r="J38" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" t="s">
+        <v>254</v>
+      </c>
+      <c r="L38" t="s">
+        <v>255</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>236</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>256</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>257</v>
+      </c>
+      <c r="J39" t="s">
+        <v>258</v>
+      </c>
+      <c r="K39" t="s">
+        <v>259</v>
+      </c>
+      <c r="L39" t="s">
+        <v>260</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>261</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>263</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" t="s">
+        <v>266</v>
+      </c>
+      <c r="L40" t="s">
+        <v>267</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>261</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>270</v>
+      </c>
+      <c r="J41" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" t="s">
+        <v>272</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>261</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>273</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>274</v>
+      </c>
+      <c r="J42" t="s">
+        <v>275</v>
+      </c>
+      <c r="K42" t="s">
+        <v>276</v>
+      </c>
+      <c r="L42" t="s">
+        <v>277</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>261</v>
+      </c>
+      <c r="O42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>280</v>
+      </c>
+      <c r="J43" t="s">
+        <v>281</v>
+      </c>
+      <c r="K43" t="s">
+        <v>282</v>
+      </c>
+      <c r="L43" t="s">
+        <v>283</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>261</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s">
+        <v>288</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>289</v>
+      </c>
+      <c r="O44" t="s">
+        <v>124</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>290</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" t="s">
+        <v>292</v>
+      </c>
+      <c r="K45" t="s">
+        <v>293</v>
+      </c>
+      <c r="L45" t="s">
+        <v>294</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>289</v>
+      </c>
+      <c r="O45" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" t="s">
+        <v>297</v>
+      </c>
+      <c r="K46" t="s">
+        <v>298</v>
+      </c>
+      <c r="L46" t="s">
+        <v>299</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>289</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>301</v>
+      </c>
+      <c r="J47" t="s">
+        <v>302</v>
+      </c>
+      <c r="K47" t="s">
+        <v>303</v>
+      </c>
+      <c r="L47" t="s">
+        <v>304</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>289</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>305</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>306</v>
+      </c>
+      <c r="J48" t="s">
+        <v>307</v>
+      </c>
+      <c r="K48" t="s">
+        <v>308</v>
+      </c>
+      <c r="L48" t="s">
+        <v>309</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>310</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>311</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>312</v>
+      </c>
+      <c r="J49" t="s">
+        <v>313</v>
+      </c>
+      <c r="K49" t="s">
+        <v>314</v>
+      </c>
+      <c r="L49" t="s">
+        <v>315</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>289</v>
+      </c>
+      <c r="O49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>316</v>
+      </c>
+      <c r="X49" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>319</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" t="s">
+        <v>322</v>
+      </c>
+      <c r="L50" t="s">
+        <v>323</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>310</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>325</v>
+      </c>
+      <c r="J51" t="s">
+        <v>326</v>
+      </c>
+      <c r="K51" t="s">
+        <v>327</v>
+      </c>
+      <c r="L51" t="s">
+        <v>328</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>310</v>
+      </c>
+      <c r="O51" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" t="s">
+        <v>331</v>
+      </c>
+      <c r="K52" t="s">
+        <v>332</v>
+      </c>
+      <c r="L52" t="s">
+        <v>333</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>310</v>
+      </c>
+      <c r="O52" t="s">
+        <v>113</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>334</v>
+      </c>
+      <c r="X52" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>338</v>
+      </c>
+      <c r="J53" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" t="s">
+        <v>340</v>
+      </c>
+      <c r="L53" t="s">
+        <v>341</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>310</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>343</v>
+      </c>
+      <c r="J54" t="s">
+        <v>344</v>
+      </c>
+      <c r="K54" t="s">
+        <v>345</v>
+      </c>
+      <c r="L54" t="s">
+        <v>346</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>347</v>
+      </c>
+      <c r="O54" t="s">
+        <v>113</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>349</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>350</v>
+      </c>
+      <c r="J55" t="s">
+        <v>351</v>
+      </c>
+      <c r="K55" t="s">
+        <v>352</v>
+      </c>
+      <c r="L55" t="s">
+        <v>353</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>347</v>
+      </c>
+      <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65130</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>354</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>355</v>
+      </c>
+      <c r="J56" t="s">
+        <v>356</v>
+      </c>
+      <c r="K56" t="s">
+        <v>357</v>
+      </c>
+      <c r="L56" t="s">
+        <v>358</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>359</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
